--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>1.255261979185776e-16</v>
+        <v>1.892762082601523e-18</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>1.46864020118431e-16</v>
+        <v>5.08772009192027e-18</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.948720708428599e-16</v>
+        <v>7.559740956755511e-18</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.646184538727367e-16</v>
+        <v>7.718242847794532e-18</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>3.414770843291676e-16</v>
+        <v>7.920589834230334e-18</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>6.762923459964165e-16</v>
+        <v>8.329615415795896e-18</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.076412385736688e-15</v>
+        <v>7.337315821523496e-18</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>2.861864346886885e-15</v>
+        <v>7.880083684902683e-18</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>4.484355303953055e-15</v>
+        <v>5.827838256402484e-18</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>4.641379024661414e-15</v>
+        <v>7.129886053900468e-18</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>3.556789963423718e-15</v>
+        <v>5.393051541228687e-18</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>1.752086392010754e-15</v>
+        <v>4.675969701542175e-18</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>1.324459815998094e-15</v>
+        <v>1.609003584454406e-18</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>1.65900225889302e-15</v>
+        <v>1.10363316195619e-18</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>7.228658367091096e-16</v>
+        <v>1.121228722404261e-18</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>5.138604015606373e-16</v>
+        <v>9.601586893561365e-19</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>2.879717381168356e-16</v>
+        <v>9.776893087857138e-19</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>1.416918420048604e-16</v>
+        <v>1.250455599515884e-18</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>1.073790316664899e-16</v>
+        <v>1.021265741327824e-18</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.064441376020339e-16</v>
+        <v>1.180494319143736e-18</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>1.234124257813174e-16</v>
+        <v>2.23315255525422e-18</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>1.523858935578079e-16</v>
+        <v>2.485491525348381e-18</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.434938557253506e-16</v>
+        <v>3.259033547844961e-18</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>2.957228113458153e-16</v>
+        <v>3.522495242565971e-18</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>4.359148308321013e-16</v>
+        <v>3.050070090990254e-18</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>9.964142558970745e-16</v>
+        <v>3.664813547390269e-18</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>2.357041400950621e-15</v>
+        <v>3.302625439019623e-18</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>2.183026345970474e-15</v>
+        <v>3.425081389231938e-18</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>1.117215476205638e-15</v>
+        <v>3.334737743701611e-18</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>5.478680894960753e-16</v>
+        <v>3.286951727321109e-18</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>2.580954578414364e-16</v>
+        <v>3.069492165006951e-18</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>2.511314774939016e-16</v>
+        <v>2.805288282814313e-18</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>1.656638546412095e-16</v>
+        <v>3.304938310469401e-18</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.384190460979724e-16</v>
+        <v>2.85610748011414e-18</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.608679523292938e-17</v>
+        <v>2.736542589410847e-18</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>9.495224437809029e-17</v>
+        <v>1.756438579938873e-18</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>1.911691093777089e-16</v>
+        <v>1.771019716879022e-18</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.134834754939317e-16</v>
+        <v>1.439949935852959e-18</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>4.762376592052295e-17</v>
+        <v>1.748350796292364e-18</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>3.862761053538405e-17</v>
+        <v>2.614399114590549e-18</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>3.110455449936365e-17</v>
+        <v>2.635188530172741e-18</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>3.510489933894861e-17</v>
+        <v>2.427952206247236e-18</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>5.582607192338926e-17</v>
+        <v>2.115439274557905e-18</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>1.251959743741923e-16</v>
+        <v>2.154239412191555e-18</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>1.374565962405826e-16</v>
+        <v>2.012841077016183e-18</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>1.494266648279275e-16</v>
+        <v>1.164208650264137e-18</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>1.501212697797778e-16</v>
+        <v>1.332153209205716e-18</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.29530655142623e-16</v>
+        <v>1.729164798287081e-18</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.065829739506153e-16</v>
+        <v>2.321673765821281e-18</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>7.527231584321064e-17</v>
+        <v>2.963238734959971e-18</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>6.445723848119933e-17</v>
+        <v>5.804996996396064e-18</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>5.981126955804407e-17</v>
+        <v>9.13880569659491e-18</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>5.917185366608766e-17</v>
+        <v>2.416202718553979e-17</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>5.579121174002102e-17</v>
+        <v>3.764605462692807e-17</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>5.283205964154659e-17</v>
+        <v>3.854238163308341e-17</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>5.428120822827322e-17</v>
+        <v>2.927495714634156e-17</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>6.554750415176111e-17</v>
+        <v>1.429149422614384e-17</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>9.236428135290368e-17</v>
+        <v>1.077881741820154e-17</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>1.325479852251424e-16</v>
+        <v>1.347336268981539e-17</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>1.639567882299937e-16</v>
+        <v>5.856709561892611e-18</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>2.050255269758669e-16</v>
+        <v>4.150593531615175e-18</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>2.454161924284886e-16</v>
+        <v>2.313247605945384e-18</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>2.585878186194333e-16</v>
+        <v>1.125374231050251e-18</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>3.080146615847042e-16</v>
+        <v>8.50991170990366e-19</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>3.553533392531314e-16</v>
+        <v>8.408798035830566e-19</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>3.511909141218711e-16</v>
+        <v>9.695572509968135e-19</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>3.780762108492039e-16</v>
+        <v>1.19035155872132e-18</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>3.739606597091031e-16</v>
+        <v>1.11573273520957e-18</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>3.645463226562249e-16</v>
+        <v>2.285056664437298e-18</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>3.513563415976222e-16</v>
+        <v>3.349075183765004e-18</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>3.473417008427905e-16</v>
+        <v>7.574775726180386e-18</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>3.240541306356812e-16</v>
+        <v>1.771371513683586e-17</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>3.119787272472508e-16</v>
+        <v>1.622634212687148e-17</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>2.406313597892281e-16</v>
+        <v>8.213756522976981e-18</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>2.156808438767769e-16</v>
+        <v>3.983382818308571e-18</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>1.760886219356141e-16</v>
+        <v>1.85549715250259e-18</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>1.284953625439709e-16</v>
+        <v>1.78612068251154e-18</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>1.134567753450374e-16</v>
+        <v>1.164976799399635e-18</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>9.456199684990627e-17</v>
+        <v>9.629858109384436e-19</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>8.839488654043994e-17</v>
+        <v>5.954532320475115e-19</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>8.855010654185731e-17</v>
+        <v>6.533032868077971e-19</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>8.654637741097736e-17</v>
+        <v>1.300835881040335e-18</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>8.139908896461414e-17</v>
+        <v>7.551807408951249e-19</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>8.04229402602973e-17</v>
+        <v>3.134171669068002e-19</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>8.01552086293726e-17</v>
+        <v>2.514767145018104e-19</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>8.806415498185588e-17</v>
+        <v>1.980482641091635e-19</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>9.412330629289754e-17</v>
+        <v>2.18632520066473e-19</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>9.721882655168861e-17</v>
+        <v>3.400748096963632e-19</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>9.602789050080217e-17</v>
+        <v>7.582961688932811e-19</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>9.250127316368465e-17</v>
+        <v>8.291561001277428e-19</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>8.503826829418664e-17</v>
+        <v>8.903005489520267e-19</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>7.073231848341266e-17</v>
+        <v>8.895246097292488e-19</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>4.153503840216253e-17</v>
+        <v>7.631484294281701e-19</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>3.392748664379069e-17</v>
+        <v>6.210810774809177e-19</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>2.632992857685916e-17</v>
+        <v>4.338973723178141e-19</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.911720943516964e-17</v>
+        <v>3.674225158788567e-19</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.733015208322694e-17</v>
+        <v>3.40136834837687e-19</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.664844952961008e-17</v>
+        <v>3.353447575303804e-19</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>1.666757944709505e-17</v>
+        <v>3.145144715151455e-19</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>1.565170971870006e-17</v>
+        <v>2.946111945192816e-19</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.54567091146191e-17</v>
+        <v>2.960222163297708e-19</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>1.548884675812736e-17</v>
+        <v>3.510898917698229e-19</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>1.540548039829013e-17</v>
+        <v>4.819775963789216e-19</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>1.496751900939096e-17</v>
+        <v>6.840400014087038e-19</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.451175274001714e-17</v>
+        <v>8.366180822067113e-19</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>1.434373598915876e-17</v>
+        <v>1.03486248980935e-18</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>1.272021392015413e-17</v>
+        <v>1.230279366444872e-18</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>1.283596886231069e-17</v>
+        <v>1.29052803257469e-18</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>1.285547907859208e-17</v>
+        <v>1.525798301743236e-18</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>1.256595153495814e-17</v>
+        <v>1.741257510078768e-18</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>1.074582652367175e-17</v>
+        <v>1.714172712094638e-18</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>9.045995530804671e-18</v>
+        <v>1.832197687892934e-18</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>8.343534732033543e-18</v>
+        <v>1.802036711831561e-18</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>8.064038560378459e-18</v>
+        <v>1.751082675150673e-18</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>9.749866820879758e-18</v>
+        <v>1.681909497119559e-18</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>1.63738184707278e-17</v>
+        <v>1.658704823186892e-18</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.977341407124389e-17</v>
+        <v>1.542778623993306e-18</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>2.061836170625186e-17</v>
+        <v>1.482285128768466e-18</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>2.064545788784988e-17</v>
+        <v>1.130617591271205e-18</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>2.076140377385962e-17</v>
+        <v>1.007394800174026e-18</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>2.077876208913417e-17</v>
+        <v>8.182937031369888e-19</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>1.933328265953608e-17</v>
+        <v>5.905748729756184e-19</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.747888198638504e-17</v>
+        <v>5.183789641674916e-19</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.02548885242233e-17</v>
+        <v>4.297374787340267e-19</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>5.888541645432385e-18</v>
+        <v>4.004242238746765e-19</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>4.715171930540988e-18</v>
+        <v>4.010741114368352e-19</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>4.798025206917338e-18</v>
+        <v>3.911494211580913e-19</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>6.34288610432069e-18</v>
+        <v>3.65864728153004e-19</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>6.925499144533559e-18</v>
+        <v>3.60267499620206e-19</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>1.005944351339074e-17</v>
+        <v>3.581675149917484e-19</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>1.258801221807328e-17</v>
+        <v>3.923430156897549e-19</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>1.269352693804978e-17</v>
+        <v>4.178927386763876e-19</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>1.184316783328077e-17</v>
+        <v>4.302965573777247e-19</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.036446048823937e-17</v>
+        <v>4.234905365203346e-19</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.025992726794238e-17</v>
+        <v>4.066716312370813e-19</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>8.919157793911873e-18</v>
+        <v>3.71724922454436e-19</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>7.354214525769649e-18</v>
+        <v>3.075283933185836e-19</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>6.517117481507115e-18</v>
+        <v>1.78590315601119e-19</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>6.299167841458918e-18</v>
+        <v>1.450701811080083e-19</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>6.058198196682778e-18</v>
+        <v>1.120160732498625e-19</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>5.918678613792765e-18</v>
+        <v>8.046178874789799e-20</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>5.462340759577508e-18</v>
+        <v>7.247375520385878e-20</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>5.917697851382501e-18</v>
+        <v>6.933619222801318e-20</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.632901809719913e-18</v>
+        <v>6.918278852741185e-20</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>7.314991325229854e-18</v>
+        <v>6.481326318543903e-20</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>8.024156506442126e-18</v>
+        <v>6.392792480029435e-20</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>9.028571123472652e-18</v>
+        <v>6.402966711350242e-20</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>9.877014979341068e-18</v>
+        <v>6.366531200580833e-20</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>9.416416811584478e-18</v>
+        <v>6.170705201261772e-20</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>9.240617916306824e-18</v>
+        <v>5.969713607033943e-20</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>8.040382593643326e-18</v>
+        <v>5.887294035562622e-20</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>7.889480643447706e-18</v>
+        <v>5.210081934020406e-20</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>6.830603441292183e-18</v>
+        <v>5.250170239958785e-20</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>6.496444864089424e-18</v>
+        <v>5.254021611331991e-20</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>6.318477144495312e-18</v>
+        <v>5.118164976028981e-20</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>7.879994660709195e-18</v>
+        <v>4.352868384029651e-20</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>6.824378501096736e-18</v>
+        <v>3.644215784809928e-20</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>7.03675977746534e-18</v>
+        <v>3.343609155446664e-20</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>6.306375625014855e-18</v>
+        <v>3.226530236048091e-20</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>5.843085545817612e-18</v>
+        <v>3.884385841085084e-20</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>5.482355507454998e-18</v>
+        <v>6.486906042156796e-20</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>5.088622916772468e-18</v>
+        <v>7.809772134988236e-20</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>4.648095777588574e-18</v>
+        <v>8.115703408481101e-20</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>4.663112856651292e-18</v>
+        <v>8.097201867725185e-20</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>2.323680956016564e-18</v>
+        <v>8.124498986710932e-20</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>9.30788563839829e-19</v>
+        <v>8.122570271162234e-20</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.670472270821569e-19</v>
+        <v>7.507021982865054e-20</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>7.98211230183983e-19</v>
+        <v>6.769494108972525e-20</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>4.948373106125869e-19</v>
+        <v>3.92502080209511e-20</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>3.971255843319439e-19</v>
+        <v>2.205007319207651e-20</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>3.317867392215232e-19</v>
+        <v>1.726628441457338e-20</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>3.357564351691345e-19</v>
+        <v>1.718518638952512e-20</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>4.411437159402234e-19</v>
+        <v>2.248166500362596e-20</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>7.72500278395661e-19</v>
+        <v>2.445018355665177e-20</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>8.095208692353395e-19</v>
+        <v>3.523773571387154e-20</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>6.626309898890951e-19</v>
+        <v>4.361919709163048e-20</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.771890389596361e-19</v>
+        <v>4.373733965078735e-20</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>4.058488858938512e-20</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>3.532241390257959e-20</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>3.496384032157796e-20</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>3.023410977962479e-20</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>2.478791260156961e-20</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.184016432958067e-20</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.10449448879786e-20</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.013424787701954e-20</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.962599592115405e-20</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.805958032705367e-20</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.943886183514137e-20</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>2.16764108498144e-20</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>2.378308486877465e-20</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>2.593653836804303e-20</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>2.902630128790675e-20</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>3.157183921269486e-20</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>3.009853999368402e-20</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.938798245303561e-20</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>2.542221189652622e-20</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>2.493984459716227e-20</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>2.149699070450641e-20</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>2.041550452420238e-20</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.984920078292381e-20</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>2.46597833850803e-20</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>2.131972966530209e-20</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>2.187888779080265e-20</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.956613387924054e-20</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>1.80874622633048e-20</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>1.693386286970967e-20</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>1.567966785142335e-20</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>1.429076569724845e-20</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>1.431142177544367e-20</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>7.091022644160617e-21</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>2.823850259130948e-21</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.714944589867816e-21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.412942054876474e-21</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.495001562123817e-21</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.197010785773079e-21</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>9.957615260178083e-22</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.00409201109312e-21</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.304265140099971e-21</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.257135823615136e-21</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>2.338555845651318e-21</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.890959013479159e-21</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.640131209550184e-21</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>1.892762082601523e-18</v>
+        <v>1.255261979185776e-16</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>5.08772009192027e-18</v>
+        <v>1.46864020118431e-16</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>7.559740956755511e-18</v>
+        <v>1.948720708428599e-16</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>7.718242847794532e-18</v>
+        <v>2.646184538727367e-16</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>7.920589834230334e-18</v>
+        <v>3.414770843291676e-16</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>8.329615415795896e-18</v>
+        <v>6.762923459964165e-16</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>7.337315821523496e-18</v>
+        <v>1.076412385736688e-15</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>7.880083684902683e-18</v>
+        <v>2.861864346886885e-15</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>5.827838256402484e-18</v>
+        <v>4.484355303953055e-15</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>7.129886053900468e-18</v>
+        <v>4.641379024661414e-15</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>5.393051541228687e-18</v>
+        <v>3.556789963423718e-15</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>4.675969701542175e-18</v>
+        <v>1.752086392010754e-15</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>1.609003584454406e-18</v>
+        <v>1.324459815998094e-15</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>1.10363316195619e-18</v>
+        <v>1.65900225889302e-15</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>1.121228722404261e-18</v>
+        <v>7.228658367091096e-16</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>9.601586893561365e-19</v>
+        <v>5.138604015606373e-16</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>9.776893087857138e-19</v>
+        <v>2.879717381168356e-16</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>1.250455599515884e-18</v>
+        <v>1.416918420048604e-16</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>1.021265741327824e-18</v>
+        <v>1.073790316664899e-16</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>1.180494319143736e-18</v>
+        <v>1.064441376020339e-16</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>2.23315255525422e-18</v>
+        <v>1.234124257813174e-16</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>2.485491525348381e-18</v>
+        <v>1.523858935578079e-16</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>3.259033547844961e-18</v>
+        <v>1.434938557253506e-16</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>3.522495242565971e-18</v>
+        <v>2.957228113458153e-16</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>3.050070090990254e-18</v>
+        <v>4.359148308321013e-16</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>3.664813547390269e-18</v>
+        <v>9.964142558970745e-16</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>3.302625439019623e-18</v>
+        <v>2.357041400950621e-15</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>3.425081389231938e-18</v>
+        <v>2.183026345970474e-15</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>3.334737743701611e-18</v>
+        <v>1.117215476205638e-15</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>3.286951727321109e-18</v>
+        <v>5.478680894960753e-16</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>3.069492165006951e-18</v>
+        <v>2.580954578414364e-16</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>2.805288282814313e-18</v>
+        <v>2.511314774939016e-16</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>3.304938310469401e-18</v>
+        <v>1.656638546412095e-16</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>2.85610748011414e-18</v>
+        <v>1.384190460979724e-16</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>2.736542589410847e-18</v>
+        <v>8.608679523292938e-17</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.756438579938873e-18</v>
+        <v>9.495224437809029e-17</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.771019716879022e-18</v>
+        <v>1.911691093777089e-16</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.439949935852959e-18</v>
+        <v>1.134834754939317e-16</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.748350796292364e-18</v>
+        <v>4.762376592052295e-17</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>2.614399114590549e-18</v>
+        <v>3.862761053538405e-17</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>2.635188530172741e-18</v>
+        <v>3.110455449936365e-17</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>2.427952206247236e-18</v>
+        <v>3.510489933894861e-17</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>2.115439274557905e-18</v>
+        <v>5.582607192338926e-17</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>2.154239412191555e-18</v>
+        <v>1.251959743741923e-16</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>2.012841077016183e-18</v>
+        <v>1.374565962405826e-16</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>1.164208650264137e-18</v>
+        <v>1.494266648279275e-16</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>1.332153209205716e-18</v>
+        <v>1.501212697797778e-16</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>1.729164798287081e-18</v>
+        <v>1.29530655142623e-16</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>2.321673765821281e-18</v>
+        <v>1.065829739506153e-16</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>2.963238734959971e-18</v>
+        <v>7.527231584321064e-17</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.804996996396064e-18</v>
+        <v>6.445723848119933e-17</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>9.13880569659491e-18</v>
+        <v>5.981126955804407e-17</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>2.416202718553979e-17</v>
+        <v>5.917185366608766e-17</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>3.764605462692807e-17</v>
+        <v>5.579121174002102e-17</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>3.854238163308341e-17</v>
+        <v>5.283205964154659e-17</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>2.927495714634156e-17</v>
+        <v>5.428120822827322e-17</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>1.429149422614384e-17</v>
+        <v>6.554750415176111e-17</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>1.077881741820154e-17</v>
+        <v>9.236428135290368e-17</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>1.347336268981539e-17</v>
+        <v>1.325479852251424e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>5.856709561892611e-18</v>
+        <v>1.639567882299937e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>4.150593531615175e-18</v>
+        <v>2.050255269758669e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>2.313247605945384e-18</v>
+        <v>2.454161924284886e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>1.125374231050251e-18</v>
+        <v>2.585878186194333e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>8.50991170990366e-19</v>
+        <v>3.080146615847042e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>8.408798035830566e-19</v>
+        <v>3.553533392531314e-16</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>9.695572509968135e-19</v>
+        <v>3.511909141218711e-16</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.19035155872132e-18</v>
+        <v>3.780762108492039e-16</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.11573273520957e-18</v>
+        <v>3.739606597091031e-16</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.285056664437298e-18</v>
+        <v>3.645463226562249e-16</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>3.349075183765004e-18</v>
+        <v>3.513563415976222e-16</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>7.574775726180386e-18</v>
+        <v>3.473417008427905e-16</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.771371513683586e-17</v>
+        <v>3.240541306356812e-16</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>1.622634212687148e-17</v>
+        <v>3.119787272472508e-16</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>8.213756522976981e-18</v>
+        <v>2.406313597892281e-16</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>3.983382818308571e-18</v>
+        <v>2.156808438767769e-16</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>1.85549715250259e-18</v>
+        <v>1.760886219356141e-16</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>1.78612068251154e-18</v>
+        <v>1.284953625439709e-16</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>1.164976799399635e-18</v>
+        <v>1.134567753450374e-16</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>9.629858109384436e-19</v>
+        <v>9.456199684990627e-17</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>5.954532320475115e-19</v>
+        <v>8.839488654043994e-17</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>6.533032868077971e-19</v>
+        <v>8.855010654185731e-17</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.300835881040335e-18</v>
+        <v>8.654637741097736e-17</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>7.551807408951249e-19</v>
+        <v>8.139908896461414e-17</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>3.134171669068002e-19</v>
+        <v>8.04229402602973e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>2.514767145018104e-19</v>
+        <v>8.01552086293726e-17</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>1.980482641091635e-19</v>
+        <v>8.806415498185588e-17</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>2.18632520066473e-19</v>
+        <v>9.412330629289754e-17</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>3.400748096963632e-19</v>
+        <v>9.721882655168861e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>7.582961688932811e-19</v>
+        <v>9.602789050080217e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.291561001277428e-19</v>
+        <v>9.250127316368465e-17</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>8.903005489520267e-19</v>
+        <v>8.503826829418664e-17</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>8.895246097292488e-19</v>
+        <v>7.073231848341266e-17</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>7.631484294281701e-19</v>
+        <v>4.153503840216253e-17</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>6.210810774809177e-19</v>
+        <v>3.392748664379069e-17</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>4.338973723178141e-19</v>
+        <v>2.632992857685916e-17</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>3.674225158788567e-19</v>
+        <v>1.911720943516964e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>3.40136834837687e-19</v>
+        <v>1.733015208322694e-17</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>3.353447575303804e-19</v>
+        <v>1.664844952961008e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>3.145144715151455e-19</v>
+        <v>1.666757944709505e-17</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>2.946111945192816e-19</v>
+        <v>1.565170971870006e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>2.960222163297708e-19</v>
+        <v>1.54567091146191e-17</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>3.510898917698229e-19</v>
+        <v>1.548884675812736e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>4.819775963789216e-19</v>
+        <v>1.540548039829013e-17</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>6.840400014087038e-19</v>
+        <v>1.496751900939096e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>8.366180822067113e-19</v>
+        <v>1.451175274001714e-17</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>1.03486248980935e-18</v>
+        <v>1.434373598915876e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>1.230279366444872e-18</v>
+        <v>1.272021392015413e-17</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>1.29052803257469e-18</v>
+        <v>1.283596886231069e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>1.525798301743236e-18</v>
+        <v>1.285547907859208e-17</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>1.741257510078768e-18</v>
+        <v>1.256595153495814e-17</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>1.714172712094638e-18</v>
+        <v>1.074582652367175e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>1.832197687892934e-18</v>
+        <v>9.045995530804671e-18</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>1.802036711831561e-18</v>
+        <v>8.343534732033543e-18</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>1.751082675150673e-18</v>
+        <v>8.064038560378459e-18</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>1.681909497119559e-18</v>
+        <v>9.749866820879758e-18</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.658704823186892e-18</v>
+        <v>1.63738184707278e-17</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.542778623993306e-18</v>
+        <v>1.977341407124389e-17</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.482285128768466e-18</v>
+        <v>2.061836170625186e-17</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>1.130617591271205e-18</v>
+        <v>2.064545788784988e-17</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>1.007394800174026e-18</v>
+        <v>2.076140377385962e-17</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>8.182937031369888e-19</v>
+        <v>2.077876208913417e-17</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>5.905748729756184e-19</v>
+        <v>1.933328265953608e-17</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>5.183789641674916e-19</v>
+        <v>1.747888198638504e-17</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>4.297374787340267e-19</v>
+        <v>1.02548885242233e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>4.004242238746765e-19</v>
+        <v>5.888541645432385e-18</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>4.010741114368352e-19</v>
+        <v>4.715171930540988e-18</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>3.911494211580913e-19</v>
+        <v>4.798025206917338e-18</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>3.65864728153004e-19</v>
+        <v>6.34288610432069e-18</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>3.60267499620206e-19</v>
+        <v>6.925499144533559e-18</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>3.581675149917484e-19</v>
+        <v>1.005944351339074e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>3.923430156897549e-19</v>
+        <v>1.258801221807328e-17</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>4.178927386763876e-19</v>
+        <v>1.269352693804978e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>4.302965573777247e-19</v>
+        <v>1.184316783328077e-17</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>4.234905365203346e-19</v>
+        <v>1.036446048823937e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>4.066716312370813e-19</v>
+        <v>1.025992726794238e-17</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>3.71724922454436e-19</v>
+        <v>8.919157793911873e-18</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>3.075283933185836e-19</v>
+        <v>7.354214525769649e-18</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>1.78590315601119e-19</v>
+        <v>6.517117481507115e-18</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>1.450701811080083e-19</v>
+        <v>6.299167841458918e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>1.120160732498625e-19</v>
+        <v>6.058198196682778e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>8.046178874789799e-20</v>
+        <v>5.918678613792765e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>7.247375520385878e-20</v>
+        <v>5.462340759577508e-18</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>6.933619222801318e-20</v>
+        <v>5.917697851382501e-18</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>6.918278852741185e-20</v>
+        <v>6.632901809719913e-18</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>6.481326318543903e-20</v>
+        <v>7.314991325229854e-18</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>6.392792480029435e-20</v>
+        <v>8.024156506442126e-18</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>6.402966711350242e-20</v>
+        <v>9.028571123472652e-18</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>6.366531200580833e-20</v>
+        <v>9.877014979341068e-18</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>6.170705201261772e-20</v>
+        <v>9.416416811584478e-18</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>5.969713607033943e-20</v>
+        <v>9.240617916306824e-18</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>5.887294035562622e-20</v>
+        <v>8.040382593643326e-18</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>5.210081934020406e-20</v>
+        <v>7.889480643447706e-18</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>5.250170239958785e-20</v>
+        <v>6.830603441292183e-18</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>5.254021611331991e-20</v>
+        <v>6.496444864089424e-18</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>5.118164976028981e-20</v>
+        <v>6.318477144495312e-18</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>4.352868384029651e-20</v>
+        <v>7.879994660709195e-18</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>3.644215784809928e-20</v>
+        <v>6.824378501096736e-18</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>3.343609155446664e-20</v>
+        <v>7.03675977746534e-18</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>3.226530236048091e-20</v>
+        <v>6.306375625014855e-18</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>3.884385841085084e-20</v>
+        <v>5.843085545817612e-18</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>6.486906042156796e-20</v>
+        <v>5.482355507454998e-18</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>7.809772134988236e-20</v>
+        <v>5.088622916772468e-18</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>8.115703408481101e-20</v>
+        <v>4.648095777588574e-18</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>8.097201867725185e-20</v>
+        <v>4.663112856651292e-18</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>8.124498986710932e-20</v>
+        <v>2.323680956016564e-18</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>8.122570271162234e-20</v>
+        <v>9.30788563839829e-19</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>7.507021982865054e-20</v>
+        <v>5.670472270821569e-19</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>6.769494108972525e-20</v>
+        <v>7.98211230183983e-19</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>3.92502080209511e-20</v>
+        <v>4.948373106125869e-19</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.205007319207651e-20</v>
+        <v>3.971255843319439e-19</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.726628441457338e-20</v>
+        <v>3.317867392215232e-19</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>1.718518638952512e-20</v>
+        <v>3.357564351691345e-19</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>2.248166500362596e-20</v>
+        <v>4.411437159402234e-19</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>2.445018355665177e-20</v>
+        <v>7.72500278395661e-19</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>3.523773571387154e-20</v>
+        <v>8.095208692353395e-19</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>4.361919709163048e-20</v>
+        <v>6.626309898890951e-19</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>4.373733965078735e-20</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>4.058488858938512e-20</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>3.532241390257959e-20</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>3.496384032157796e-20</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>3.023410977962479e-20</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>2.478791260156961e-20</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.184016432958067e-20</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.10449448879786e-20</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.013424787701954e-20</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.962599592115405e-20</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.805958032705367e-20</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.943886183514137e-20</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>2.16764108498144e-20</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>2.378308486877465e-20</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.593653836804303e-20</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>2.902630128790675e-20</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>3.157183921269486e-20</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.009853999368402e-20</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>2.938798245303561e-20</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>2.542221189652622e-20</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.493984459716227e-20</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>2.149699070450641e-20</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>2.041550452420238e-20</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>1.984920078292381e-20</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>2.46597833850803e-20</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>2.131972966530209e-20</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.187888779080265e-20</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>1.956613387924054e-20</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>1.80874622633048e-20</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>1.693386286970967e-20</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>1.567966785142335e-20</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>1.429076569724845e-20</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>1.431142177544367e-20</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>7.091022644160617e-21</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>2.823850259130948e-21</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>1.714944589867816e-21</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>2.412942054876474e-21</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>1.495001562123817e-21</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.197010785773079e-21</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>9.957615260178083e-22</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.00409201109312e-21</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.304265140099971e-21</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.257135823615136e-21</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>2.338555845651318e-21</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.890959013479159e-21</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>1.640131209550184e-21</v>
+        <v>5.771890389596361e-19</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>1.255261979185776e-16</v>
+        <v>2.962557122300673</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>1.46864020118431e-16</v>
+        <v>4.959318495763267</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>1.948720708428599e-16</v>
+        <v>6.869707814183431</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.646184538727367e-16</v>
+        <v>6.700256247871862</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>3.414770843291676e-16</v>
+        <v>8.137568145666119</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>6.762923459964165e-16</v>
+        <v>7.723372700601888</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>1.076412385736688e-15</v>
+        <v>7.240422059576941</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>2.861864346886885e-15</v>
+        <v>7.704416763419245</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>4.484355303953055e-15</v>
+        <v>5.43810383247979</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>4.641379024661414e-15</v>
+        <v>6.67325867512699</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>3.556789963423718e-15</v>
+        <v>7.214987325399107</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>1.752086392010754e-15</v>
+        <v>4.49172939726663</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>1.324459815998094e-15</v>
+        <v>1.479741243841837</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>1.65900225889302e-15</v>
+        <v>1.004986434561861</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>7.228658367091096e-16</v>
+        <v>1.076575394192433</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>5.138604015606373e-16</v>
+        <v>0.9000327287739694</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>2.879717381168356e-16</v>
+        <v>0.925780766184646</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>1.416918420048604e-16</v>
+        <v>1.165741260203615</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>1.073790316664899e-16</v>
+        <v>0.9571171328417767</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.064441376020339e-16</v>
+        <v>1.133710228763467</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>1.234124257813174e-16</v>
+        <v>2.029738135883396</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>1.523858935578079e-16</v>
+        <v>2.352802415182299</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.434938557253506e-16</v>
+        <v>3.245497228052681</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>2.957228113458153e-16</v>
+        <v>3.398215193752584</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>4.359148308321013e-16</v>
+        <v>3.161231232340031</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>9.964142558970745e-16</v>
+        <v>3.436268320183771</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>2.357041400950621e-15</v>
+        <v>3.318214298728198</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>2.183026345970474e-15</v>
+        <v>3.273672521162585</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>1.117215476205638e-15</v>
+        <v>3.191214328240069</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>5.478680894960753e-16</v>
+        <v>3.199690025756575</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>2.580954578414364e-16</v>
+        <v>2.960755258514906</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>2.511314774939016e-16</v>
+        <v>2.756545606286151</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>1.656638546412095e-16</v>
+        <v>3.0786464818999</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>1.384190460979724e-16</v>
+        <v>2.704518274493786</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>8.608679523292938e-17</v>
+        <v>2.557762075566627</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>9.495224437809029e-17</v>
+        <v>1.699850468965589</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>1.911691093777089e-16</v>
+        <v>1.668179044090198</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.134834754939317e-16</v>
+        <v>1.555705831891565</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>4.762376592052295e-17</v>
+        <v>1.652900992844924</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>3.862761053538405e-17</v>
+        <v>2.449539521570789</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>3.110455449936365e-17</v>
+        <v>2.488638957139704</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>3.510489933894861e-17</v>
+        <v>2.258644258990196</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>5.582607192338926e-17</v>
+        <v>1.976879067420686</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>1.251959743741923e-16</v>
+        <v>2.001789285422165</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>1.374565962405826e-16</v>
+        <v>1.882404644514997</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>1.494266648279275e-16</v>
+        <v>1.079529836617894</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>1.501212697797778e-16</v>
+        <v>1.245257378447498</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.29530655142623e-16</v>
+        <v>1.608531005710039</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.065829739506153e-16</v>
+        <v>2.173739685185734</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>7.527231584321064e-17</v>
+        <v>2.769664681918765</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>6.445723848119933e-17</v>
+        <v>5.403692586790506</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>5.981126955804407e-17</v>
+        <v>8.507322720014455</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>5.917185366608766e-17</v>
+        <v>22.56238465676613</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>5.579121174002102e-17</v>
+        <v>35.12081986890792</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>5.283205964154659e-17</v>
+        <v>35.90467623477365</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>5.428120822827322e-17</v>
+        <v>27.28554572482053</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>6.554750415176111e-17</v>
+        <v>13.34970887588444</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>9.236428135290368e-17</v>
+        <v>10.07733259857654</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>1.325479852251424e-16</v>
+        <v>12.57153594868171</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>1.639567882299937e-16</v>
+        <v>5.45803734956104</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>2.050255269758669e-16</v>
+        <v>3.858245513561074</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2.454161924284886e-16</v>
+        <v>2.145921435565285</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>2.585878186194333e-16</v>
+        <v>1.049972413915716</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>3.080146615847042e-16</v>
+        <v>0.7952635039869509</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>3.553533392531314e-16</v>
+        <v>0.7917771055991238</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>3.511909141218711e-16</v>
+        <v>0.902908865435434</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>3.780762108492039e-16</v>
+        <v>1.13574909167051</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>3.739606597091031e-16</v>
+        <v>1.067885760579081</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>3.645463226562249e-16</v>
+        <v>2.086014454829811</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>3.513563415976222e-16</v>
+        <v>3.165827916022085</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>3.473417008427905e-16</v>
+        <v>7.069739893998724</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>3.240541306356812e-16</v>
+        <v>16.52735191297033</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>3.119787272472508e-16</v>
+        <v>15.14786124563457</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>2.406313597892281e-16</v>
+        <v>7.659489782254415</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>2.156808438767769e-16</v>
+        <v>3.734553308724119</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>1.760886219356141e-16</v>
+        <v>1.730593243536202</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>1.284953625439709e-16</v>
+        <v>1.672218585356322</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>1.134567753450374e-16</v>
+        <v>1.108673480425352</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>9.456199684990627e-17</v>
+        <v>0.8978646970420188</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>8.839488654043994e-17</v>
+        <v>0.5541466394899937</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>8.855010654185731e-17</v>
+        <v>0.6086456089041423</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>8.654637741097736e-17</v>
+        <v>1.211058637002485</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>8.139908896461414e-17</v>
+        <v>0.7027964796927113</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>8.04229402602973e-17</v>
+        <v>0.2912534150021719</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>8.01552086293726e-17</v>
+        <v>0.2342049628770395</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>8.806415498185588e-17</v>
+        <v>0.1847961624571131</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>9.412330629289754e-17</v>
+        <v>0.2022913509411486</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>9.721882655168861e-17</v>
+        <v>0.3171034513948539</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>9.602789050080217e-17</v>
+        <v>0.7059171311594422</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>9.250127316368465e-17</v>
+        <v>0.7711038668886107</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>8.503826829418664e-17</v>
+        <v>0.8315614099516389</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>7.073231848341266e-17</v>
+        <v>0.8274703492543908</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>4.153503840216253e-17</v>
+        <v>0.7084060608601146</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>3.392748664379069e-17</v>
+        <v>0.5795207941485272</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>2.632992857685916e-17</v>
+        <v>0.4041066479775083</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.911720943516964e-17</v>
+        <v>0.3430926074492461</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>1.733015208322694e-17</v>
+        <v>0.3178151800995072</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>1.664844952961008e-17</v>
+        <v>0.3102760201304939</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>1.666757944709505e-17</v>
+        <v>0.2938422546471086</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>1.565170971870006e-17</v>
+        <v>0.2742811021320609</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>1.54567091146191e-17</v>
+        <v>0.2758421993257205</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>1.548884675812736e-17</v>
+        <v>0.3276751106426603</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>1.540548039829013e-17</v>
+        <v>0.4491869895790888</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>1.496751900939096e-17</v>
+        <v>0.6370575918534401</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>1.451175274001714e-17</v>
+        <v>0.7799066962163896</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>1.434373598915876e-17</v>
+        <v>0.9634948891735798</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>1.272021392015413e-17</v>
+        <v>1.146651262317843</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>1.283596886231069e-17</v>
+        <v>1.202393760659439</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>1.285547907859208e-17</v>
+        <v>1.42342454509994</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>1.256595153495814e-17</v>
+        <v>1.622754647020011</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>1.074582652367175e-17</v>
+        <v>1.597345868481449</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>9.045995530804671e-18</v>
+        <v>1.706186289277023</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>8.343534732033543e-18</v>
+        <v>1.678601056409708</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>8.064038560378459e-18</v>
+        <v>1.631562512428532</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>9.749866820879758e-18</v>
+        <v>1.567570328789293</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>1.63738184707278e-17</v>
+        <v>1.543357450187996</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>1.977341407124389e-17</v>
+        <v>1.437054048065954</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>2.061836170625186e-17</v>
+        <v>1.381163832581204</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>2.064545788784988e-17</v>
+        <v>1.053262738594662</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>2.076140377385962e-17</v>
+        <v>0.9380890830011508</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>2.077876208913417e-17</v>
+        <v>0.7632372138782585</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>1.933328265953608e-17</v>
+        <v>0.5501491372818316</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>1.747888198638504e-17</v>
+        <v>0.482811668022311</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.02548885242233e-17</v>
+        <v>0.4009009878710706</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>5.888541645432385e-18</v>
+        <v>0.3731449161705542</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>4.715171930540988e-18</v>
+        <v>0.37400529702678</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>4.798025206917338e-18</v>
+        <v>0.365295559675241</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>6.34288610432069e-18</v>
+        <v>0.3410042593915619</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>6.925499144533559e-18</v>
+        <v>0.3362768654688101</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>1.005944351339074e-17</v>
+        <v>0.3334549370283639</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>1.258801221807328e-17</v>
+        <v>0.3656330100798189</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>1.269352693804978e-17</v>
+        <v>0.3890994971251186</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>1.184316783328077e-17</v>
+        <v>0.4006353708961286</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.036446048823937e-17</v>
+        <v>0.3950528719433577</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.025992726794238e-17</v>
+        <v>0.3785452448217777</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>8.919157793911873e-18</v>
+        <v>0.3461650291187375</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>7.354214525769649e-18</v>
+        <v>0.2867087483514408</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>6.517117481507115e-18</v>
+        <v>0.1663019489391632</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>6.299167841458918e-18</v>
+        <v>0.1347627811725102</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>6.058198196682778e-18</v>
+        <v>0.1045193523625681</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>5.918678613792765e-18</v>
+        <v>0.07509587391147707</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>5.462340759577508e-18</v>
+        <v>0.06740252684898335</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>5.917697851382501e-18</v>
+        <v>0.06425567504295313</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>6.632901809719913e-18</v>
+        <v>0.06439625190279376</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>7.314991325229854e-18</v>
+        <v>0.06039538173993084</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>8.024156506442126e-18</v>
+        <v>0.05987067576395962</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>9.028571123472652e-18</v>
+        <v>0.05976182322284181</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>9.877014979341068e-18</v>
+        <v>0.05937614149319023</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>9.416416811584478e-18</v>
+        <v>0.05745186688574609</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>9.240617916306824e-18</v>
+        <v>0.05536760473557793</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>8.040382593643326e-18</v>
+        <v>0.05462099095022851</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>7.889480643447706e-18</v>
+        <v>0.04876504517380583</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>6.830603441292183e-18</v>
+        <v>0.0488725117086308</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>6.496444864089424e-18</v>
+        <v>0.04908215313330277</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>6.318477144495312e-18</v>
+        <v>0.04768165766037035</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>7.879994660709195e-18</v>
+        <v>0.04059207856743655</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>6.824378501096736e-18</v>
+        <v>0.0341737656164073</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>7.03675977746534e-18</v>
+        <v>0.03111334875897833</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>6.306375625014855e-18</v>
+        <v>0.0300256374888908</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>5.843085545817612e-18</v>
+        <v>0.03610667183165931</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>5.482355507454998e-18</v>
+        <v>0.060814569161546</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>5.088622916772468e-18</v>
+        <v>0.07259703250785254</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>4.648095777588574e-18</v>
+        <v>0.07557685928468563</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>4.663112856651292e-18</v>
+        <v>0.07525343951188002</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>2.323680956016564e-18</v>
+        <v>0.07557743415192007</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>9.30788563839829e-19</v>
+        <v>0.07567114877013589</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>5.670472270821569e-19</v>
+        <v>0.06984803515524757</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>7.98211230183983e-19</v>
+        <v>0.06316617024295842</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>4.948373106125869e-19</v>
+        <v>0.03656302103543802</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>3.971255843319439e-19</v>
+        <v>0.02052516020635676</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>3.317867392215232e-19</v>
+        <v>0.0161011527633923</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>3.357564351691345e-19</v>
+        <v>0.01602897607846772</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>4.411437159402234e-19</v>
+        <v>0.02099816921656987</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>7.72500278395661e-19</v>
+        <v>0.02271986653471005</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>8.095208692353395e-19</v>
+        <v>0.03272463889161822</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>6.626309898890951e-19</v>
+        <v>0.04086302017235063</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>5.771890389596361e-19</v>
+        <v>0.04070657223394007</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.03779376117241307</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.03283053086700762</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.03257559863575425</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>0.02817018833469876</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>0.02307163189661897</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>0.02040505342045748</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.01975881491988538</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.01881622640021483</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.01832537425489985</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.01689953891643904</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.01815539044237873</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>0.02025269431197524</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>0.0221737876268554</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>0.02411768679229031</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>0.02701661635179791</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>0.02943422925288179</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>0.0280512362075875</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>0.0273135595794708</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.02369588947866764</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.02324032725508747</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.02006358529648707</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.01904791526523431</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>0.01852339095642858</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>0.02298071621826014</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>0.01985186239227212</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>0.02032961134170409</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>0.01823744718274393</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.01686150252991616</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.01577563006019035</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.01457538804313941</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.01330903431195934</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.01336199376402959</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>0.006626532672511522</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>0.002627970205205147</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>0.001595862250096671</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>0.002248152335936153</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>0.001392384587645245</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.001112850937245089</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.0009193875365142082</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.0009159533693443111</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>0.00121779374361005</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>0.002099056756504712</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>0.002175568817347489</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>0.00176001897387897</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>0.001524762765102456</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.962557122300673</v>
+        <v>1.339297448897081e-16</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>4.959318495763267</v>
+        <v>1.517046658531155e-16</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>6.869707814183431</v>
+        <v>1.998717895692823e-16</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6.700256247871862</v>
+        <v>2.753227251257334e-16</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>8.137568145666119</v>
+        <v>3.546047059402952e-16</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>7.723372700601888</v>
+        <v>6.832874293703725e-16</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>7.240422059576941</v>
+        <v>1.089190125138843e-15</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>7.704416763419245</v>
+        <v>2.846040232911402e-15</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>5.43810383247979</v>
+        <v>4.444333783302991e-15</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>6.67325867512699</v>
+        <v>4.623863973497578e-15</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>7.214987325399107</v>
+        <v>3.531267161475043e-15</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.49172939726663</v>
+        <v>1.737018393936384e-15</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.479741243841837</v>
+        <v>1.324271464305222e-15</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.004986434561861</v>
+        <v>1.655710026751971e-15</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.076575394192433</v>
+        <v>7.312951987642868e-16</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9000327287739694</v>
+        <v>5.102441860413741e-16</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>0.925780766184646</v>
+        <v>2.896231065440427e-16</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.165741260203615</v>
+        <v>1.482537724297141e-16</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9571171328417767</v>
+        <v>1.120672722376776e-16</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.133710228763467</v>
+        <v>1.098359729902095e-16</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>2.029738135883396</v>
+        <v>1.311527584962422e-16</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>2.352802415182299</v>
+        <v>1.597764894935498e-16</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>3.245497228052681</v>
+        <v>1.502144974351093e-16</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3.398215193752584</v>
+        <v>2.996116143361652e-16</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>3.161231232340031</v>
+        <v>4.529036306576927e-16</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>3.436268320183771</v>
+        <v>9.935025281599186e-16</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>3.318214298728198</v>
+        <v>2.368842677665746e-15</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>3.273672521162585</v>
+        <v>2.204913121647152e-15</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>3.191214328240069</v>
+        <v>1.107283958949244e-15</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>3.199690025756575</v>
+        <v>5.52543563677088e-16</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>2.960755258514906</v>
+        <v>2.619124764573887e-16</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.756545606286151</v>
+        <v>2.519213280548365e-16</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.0786464818999</v>
+        <v>1.627999007423761e-16</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.704518274493786</v>
+        <v>1.431063939560308e-16</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.557762075566627</v>
+        <v>8.345049501972405e-17</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.699850468965589</v>
+        <v>9.769732906968784e-17</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.668179044090198</v>
+        <v>1.957331467927525e-16</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.555705831891565</v>
+        <v>1.157334877978978e-16</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.652900992844924</v>
+        <v>4.886901733434214e-17</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.449539521570789</v>
+        <v>4.128122165703862e-17</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.488638957139704</v>
+        <v>3.271145357617668e-17</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>2.258644258990196</v>
+        <v>3.534414217839127e-17</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.976879067420686</v>
+        <v>5.793069541195671e-17</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.001789285422165</v>
+        <v>1.268207168919572e-16</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.882404644514997</v>
+        <v>1.394314262614405e-16</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.079529836617894</v>
+        <v>1.521343678410524e-16</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.245257378447498</v>
+        <v>1.511976947709341e-16</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.608531005710039</v>
+        <v>1.292676424846664e-16</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>2.173739685185734</v>
+        <v>1.085602686027738e-16</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>2.769664681918765</v>
+        <v>7.715074079854327e-17</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.403692586790506</v>
+        <v>6.704202493364491e-17</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>8.507322720014455</v>
+        <v>6.156815206045551e-17</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>22.56238465676613</v>
+        <v>6.028553507730664e-17</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>35.12081986890792</v>
+        <v>5.721800991696111e-17</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>35.90467623477365</v>
+        <v>5.386131915967112e-17</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>27.28554572482053</v>
+        <v>5.534431189343615e-17</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>13.34970887588444</v>
+        <v>6.700874385109356e-17</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>10.07733259857654</v>
+        <v>9.367296460361562e-17</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>12.57153594868171</v>
+        <v>1.32223018730427e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>5.45803734956104</v>
+        <v>1.642544826377913e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>3.858245513561074</v>
+        <v>2.04468968648629e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.145921435565285</v>
+        <v>2.444918993558973e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.049972413915716</v>
+        <v>2.572304718256247e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>0.7952635039869509</v>
+        <v>3.070852781136776e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>0.7917771055991238</v>
+        <v>3.530081433839115e-16</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>0.902908865435434</v>
+        <v>3.493359070274987e-16</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.13574909167051</v>
+        <v>3.749304950492929e-16</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.067885760579081</v>
+        <v>3.712545102778403e-16</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.086014454829811</v>
+        <v>3.624453755270563e-16</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.165827916022085</v>
+        <v>3.49126890751955e-16</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>7.069739893998724</v>
+        <v>3.442175187959249e-16</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>16.52735191297033</v>
+        <v>3.212184886857576e-16</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>15.14786124563457</v>
+        <v>3.100203346877887e-16</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>7.659489782254415</v>
+        <v>2.392644249334644e-16</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>3.734553308724119</v>
+        <v>2.146166580417312e-16</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.730593243536202</v>
+        <v>1.753463395246406e-16</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.672218585356322</v>
+        <v>1.278401934298318e-16</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.108673480425352</v>
+        <v>1.130814141321732e-16</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>0.8978646970420188</v>
+        <v>9.457793381665177e-17</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>0.5541466394899937</v>
+        <v>8.828888562401897e-17</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6086456089041423</v>
+        <v>8.861516311477231e-17</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.211058637002485</v>
+        <v>8.676093659264641e-17</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7027964796927113</v>
+        <v>8.130783786036749e-17</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>0.2912534150021719</v>
+        <v>8.055733461880392e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>0.2342049628770395</v>
+        <v>8.035558651705672e-17</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>0.1847961624571131</v>
+        <v>8.761561099325689e-17</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>0.2022913509411486</v>
+        <v>9.392480103703073e-17</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>0.3171034513948539</v>
+        <v>9.692807830357526e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>0.7059171311594422</v>
+        <v>9.610266214579715e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>0.7711038668886107</v>
+        <v>9.205010253733159e-17</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>0.8315614099516389</v>
+        <v>8.46339750674584e-17</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>0.8274703492543908</v>
+        <v>7.071694385112358e-17</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>0.7084060608601146</v>
+        <v>4.161381904706245e-17</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>0.5795207941485272</v>
+        <v>3.395540773694576e-17</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>0.4041066479775083</v>
+        <v>2.667919905174692e-17</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>0.3430926074492461</v>
+        <v>1.942285080574903e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>0.3178151800995072</v>
+        <v>1.766498553890463e-17</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>0.3102760201304939</v>
+        <v>1.694231659333339e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>0.2938422546471086</v>
+        <v>1.700602044473121e-17</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>0.2742811021320609</v>
+        <v>1.594728901055253e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>0.2758421993257205</v>
+        <v>1.581917065261621e-17</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>0.3276751106426603</v>
+        <v>1.59016846925939e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>0.4491869895790888</v>
+        <v>1.567444869074418e-17</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>0.6370575918534401</v>
+        <v>1.515282995779218e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>0.7799066962163896</v>
+        <v>1.457916613560996e-17</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9634948891735798</v>
+        <v>1.420876812027391e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.146651262317843</v>
+        <v>1.317468127988846e-17</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.202393760659439</v>
+        <v>1.316494920441325e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.42342454509994</v>
+        <v>1.33358501791536e-17</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.622754647020011</v>
+        <v>1.294002933872216e-17</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.597345868481449</v>
+        <v>1.106425575054749e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>1.706186289277023</v>
+        <v>9.441135777182757e-18</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.678601056409708</v>
+        <v>8.635633194124122e-18</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.631562512428532</v>
+        <v>8.315054782132935e-18</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.567570328789293</v>
+        <v>1.014616118045566e-17</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.543357450187996</v>
+        <v>1.683242704941538e-17</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.437054048065954</v>
+        <v>1.998166408327726e-17</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.381163832581204</v>
+        <v>2.09166170791023e-17</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>1.053262738594662</v>
+        <v>2.080996072749508e-17</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>0.9380890830011508</v>
+        <v>2.113308130787317e-17</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>0.7632372138782585</v>
+        <v>2.108028721956637e-17</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>0.5501491372818316</v>
+        <v>1.95323332997134e-17</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>0.482811668022311</v>
+        <v>1.777308885328583e-17</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>0.4009009878710706</v>
+        <v>1.045848704838641e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>0.3731449161705542</v>
+        <v>6.040204733940971e-18</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>0.37400529702678</v>
+        <v>4.903125043541066e-18</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>0.365295559675241</v>
+        <v>4.910879197411386e-18</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>0.3410042593915619</v>
+        <v>6.523539651692626e-18</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>0.3362768654688101</v>
+        <v>7.077247709575857e-18</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>0.3334549370283639</v>
+        <v>1.017764346680408e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>0.3656330100798189</v>
+        <v>1.270963206791726e-17</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>0.3890994971251186</v>
+        <v>1.289861446890924e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>0.4006353708961286</v>
+        <v>1.195592813690126e-17</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>0.3950528719433577</v>
+        <v>1.037059216014105e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>0.3785452448217777</v>
+        <v>8.955292310120448e-18</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>0.3461650291187375</v>
+        <v>7.390209588445176e-18</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>0.2867087483514408</v>
+        <v>6.633726771293565e-18</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1663019489391632</v>
+        <v>6.509806724405185e-18</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>0.1347627811725102</v>
+        <v>6.076707473925768e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>0.1045193523625681</v>
+        <v>5.987112301131142e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>0.07509587391147707</v>
+        <v>5.688361913214956e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>0.06740252684898335</v>
+        <v>6.053741826991126e-18</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>0.06425567504295313</v>
+        <v>6.766473150753961e-18</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>0.06439625190279376</v>
+        <v>7.404040873654461e-18</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>0.06039538173993084</v>
+        <v>8.102511913240646e-18</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>0.05987067576395962</v>
+        <v>9.069341848535119e-18</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>0.05976182322284181</v>
+        <v>9.6937591172538e-18</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>0.05937614149319023</v>
+        <v>9.221646704635865e-18</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>0.05745186688574609</v>
+        <v>8.08353183765916e-18</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>0.05536760473557793</v>
+        <v>7.938187257412427e-18</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>0.05462099095022851</v>
+        <v>6.894712264087221e-18</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>0.04876504517380583</v>
+        <v>6.559079886043045e-18</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>0.0488725117086308</v>
+        <v>6.388834720392918e-18</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>0.04908215313330277</v>
+        <v>7.902247756265601e-18</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>0.04768165766037035</v>
+        <v>6.8804582789779e-18</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>0.04059207856743655</v>
+        <v>7.067250193057281e-18</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>0.0341737656164073</v>
+        <v>6.359825323398024e-18</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>0.03111334875897833</v>
+        <v>5.89813606741947e-18</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>0.0300256374888908</v>
+        <v>5.547554605910583e-18</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>0.03610667183165931</v>
+        <v>5.080727866579118e-18</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>0.060814569161546</v>
+        <v>4.699832971285959e-18</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>0.07259703250785254</v>
+        <v>4.75513064661098e-18</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>0.07557685928468563</v>
+        <v>2.399103140534542e-18</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>0.07525343951188002</v>
+        <v>9.665939719514355e-19</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>0.07557743415192007</v>
+        <v>5.751064875175945e-19</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>0.07567114877013589</v>
+        <v>8.264128104057038e-19</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>0.06984803515524757</v>
+        <v>5.132177374543994e-19</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>0.06316617024295842</v>
+        <v>4.06780588594038e-19</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>0.03656302103543802</v>
+        <v>3.351682764150038e-19</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>0.02052516020635676</v>
+        <v>3.328189366157921e-19</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>0.0161011527633923</v>
+        <v>4.617028661536458e-19</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>0.01602897607846772</v>
+        <v>7.985203246388881e-19</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>0.02099816921656987</v>
+        <v>8.383453345964236e-19</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>0.02271986653471005</v>
+        <v>6.835385930079932e-19</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>0.03272463889161822</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>0.04086302017235063</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>0.04070657223394007</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>0.03779376117241307</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>0.03283053086700762</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>0.03257559863575425</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>0.02817018833469876</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>0.02307163189661897</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>0.02040505342045748</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>0.01975881491988538</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>0.01881622640021483</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>0.01832537425489985</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>0.01689953891643904</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>0.01815539044237873</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>0.02025269431197524</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>0.0221737876268554</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>0.02411768679229031</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>0.02701661635179791</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>0.02943422925288179</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>0.0280512362075875</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>0.0273135595794708</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>0.02369588947866764</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>0.02324032725508747</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>0.02006358529648707</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>0.01904791526523431</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>0.01852339095642858</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>0.02298071621826014</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>0.01985186239227212</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>0.02032961134170409</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>0.01823744718274393</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>0.01686150252991616</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>0.01577563006019035</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>0.01457538804313941</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>0.01330903431195934</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>0.01336199376402959</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>0.006626532672511522</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>0.002627970205205147</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>0.001595862250096671</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>0.002248152335936153</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>0.001392384587645245</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>0.001112850937245089</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>0.0009193875365142082</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>0.0009159533693443111</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>0.00121779374361005</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>0.002099056756504712</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>0.002175568817347489</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>0.00176001897387897</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>0.001524762765102456</v>
+        <v>5.951977509145482e-19</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints1.500000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>1.339297448897081e-16</v>
+        <v>7.008203643973888e-17</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>1.517046658531155e-16</v>
+        <v>9.410596191343239e-17</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.998717895692823e-16</v>
+        <v>1.426223406965448e-16</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.753227251257334e-16</v>
+        <v>2.274334869184033e-16</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>3.546047059402952e-16</v>
+        <v>3.185394382668553e-16</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>6.832874293703725e-16</v>
+        <v>6.266824591142677e-16</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>1.089190125138843e-15</v>
+        <v>1.05695950971881e-15</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>2.846040232911402e-15</v>
+        <v>2.77866146919251e-15</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>4.444333783302991e-15</v>
+        <v>4.351272226511449e-15</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>4.623863973497578e-15</v>
+        <v>4.589421571307213e-15</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>3.531267161475043e-15</v>
+        <v>3.485106113775767e-15</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>1.737018393936384e-15</v>
+        <v>1.720178588997866e-15</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>1.324271464305222e-15</v>
+        <v>1.285276100637268e-15</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>1.655710026751971e-15</v>
+        <v>1.634878756829798e-15</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>7.312951987642868e-16</v>
+        <v>6.980172492947272e-16</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>5.102441860413741e-16</v>
+        <v>4.875840106907465e-16</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>2.896231065440427e-16</v>
+        <v>2.505437394118316e-16</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>1.482537724297141e-16</v>
+        <v>1.198957381630076e-16</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.120672722376776e-16</v>
+        <v>9.002426154733138e-17</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.098359729902095e-16</v>
+        <v>8.343324472558677e-17</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.311527584962422e-16</v>
+        <v>1.114813694942756e-16</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.597764894935498e-16</v>
+        <v>1.515703253608858e-16</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.502144974351093e-16</v>
+        <v>1.264753692592894e-16</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>2.996116143361652e-16</v>
+        <v>2.598806954805106e-16</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>4.529036306576927e-16</v>
+        <v>4.011615223289647e-16</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>9.935025281599186e-16</v>
+        <v>9.842707452196682e-16</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>2.368842677665746e-15</v>
+        <v>2.354692229050779e-15</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>2.204913121647152e-15</v>
+        <v>2.176737597030377e-15</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>1.107283958949244e-15</v>
+        <v>1.100567021946342e-15</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>5.52543563677088e-16</v>
+        <v>5.331370294941157e-16</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>2.619124764573887e-16</v>
+        <v>2.506545229602543e-16</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>2.519213280548365e-16</v>
+        <v>2.397217178216362e-16</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>1.627999007423761e-16</v>
+        <v>1.673712148298187e-16</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>1.431063939560308e-16</v>
+        <v>1.097938657390615e-16</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>8.345049501972405e-17</v>
+        <v>8.188118075241703e-17</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>9.769732906968784e-17</v>
+        <v>9.454699800543487e-17</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.957331467927525e-16</v>
+        <v>1.924733231851539e-16</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.157334877978978e-16</v>
+        <v>1.137468863234744e-16</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>4.886901733434214e-17</v>
+        <v>4.480398385375401e-17</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>4.128122165703862e-17</v>
+        <v>3.618873331124742e-17</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>3.271145357617668e-17</v>
+        <v>3.040929641306414e-17</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>3.534414217839127e-17</v>
+        <v>3.231139031554073e-17</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>5.793069541195671e-17</v>
+        <v>5.682682417281271e-17</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.268207168919572e-16</v>
+        <v>1.250329287607794e-16</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.394314262614405e-16</v>
+        <v>1.374842189641819e-16</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>1.521343678410524e-16</v>
+        <v>1.521171436984835e-16</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.511976947709341e-16</v>
+        <v>1.505573200970399e-16</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.292676424846664e-16</v>
+        <v>1.275210384373949e-16</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.085602686027738e-16</v>
+        <v>1.068385348907044e-16</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>7.715074079854327e-17</v>
+        <v>7.756296844433561e-17</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>6.704202493364491e-17</v>
+        <v>6.642093049375356e-17</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>6.156815206045551e-17</v>
+        <v>6.225148363718258e-17</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>6.028553507730664e-17</v>
+        <v>5.931562674031935e-17</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>5.721800991696111e-17</v>
+        <v>5.486853154929484e-17</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>5.386131915967112e-17</v>
+        <v>5.18365594957573e-17</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>5.534431189343615e-17</v>
+        <v>5.454168581505308e-17</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>6.700874385109356e-17</v>
+        <v>6.606793666572669e-17</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>9.367296460361562e-17</v>
+        <v>9.370108984974293e-17</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.32223018730427e-16</v>
+        <v>1.32911700399037e-16</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.642544826377913e-16</v>
+        <v>1.649348571351604e-16</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>2.04468968648629e-16</v>
+        <v>2.049940279023887e-16</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>2.444918993558973e-16</v>
+        <v>2.456219847880356e-16</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.572304718256247e-16</v>
+        <v>2.576671280495905e-16</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>3.070852781136776e-16</v>
+        <v>3.073837400596905e-16</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>3.530081433839115e-16</v>
+        <v>3.548790455063358e-16</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>3.493359070274987e-16</v>
+        <v>3.50417867596789e-16</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>3.749304950492929e-16</v>
+        <v>3.791216564476555e-16</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>3.712545102778403e-16</v>
+        <v>3.721784935625382e-16</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>3.624453755270563e-16</v>
+        <v>3.649224560467604e-16</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.49126890751955e-16</v>
+        <v>3.507386333284472e-16</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>3.442175187959249e-16</v>
+        <v>3.448395448141728e-16</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>3.212184886857576e-16</v>
+        <v>3.244175140088847e-16</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>3.100203346877887e-16</v>
+        <v>3.112051149726821e-16</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>2.392644249334644e-16</v>
+        <v>2.413026717330716e-16</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>2.146166580417312e-16</v>
+        <v>2.146862925655547e-16</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>1.753463395246406e-16</v>
+        <v>1.759184719635033e-16</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>1.278401934298318e-16</v>
+        <v>1.286319489987204e-16</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.130814141321732e-16</v>
+        <v>1.136520796024427e-16</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>9.457793381665177e-17</v>
+        <v>9.479063829105616e-17</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>8.828888562401897e-17</v>
+        <v>8.867594722857939e-17</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>8.861516311477231e-17</v>
+        <v>8.883920713990411e-17</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>8.676093659264641e-17</v>
+        <v>8.70427648280576e-17</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>8.130783786036749e-17</v>
+        <v>8.148771731233292e-17</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>8.055733461880392e-17</v>
+        <v>8.066736286665644e-17</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>8.035558651705672e-17</v>
+        <v>8.041413140999849e-17</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>8.761561099325689e-17</v>
+        <v>8.795991142385041e-17</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>9.392480103703073e-17</v>
+        <v>9.393407853633999e-17</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>9.692807830357526e-17</v>
+        <v>9.687423309133249e-17</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>9.610266214579715e-17</v>
+        <v>9.614062696721898e-17</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>9.205010253733159e-17</v>
+        <v>9.233888474517794e-17</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>8.46339750674584e-17</v>
+        <v>8.457593999045835e-17</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>7.071694385112358e-17</v>
+        <v>7.108348679679534e-17</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>4.161381904706245e-17</v>
+        <v>4.187731602623171e-17</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>3.395540773694576e-17</v>
+        <v>3.431214053288306e-17</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>2.667919905174692e-17</v>
+        <v>2.681763612557513e-17</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.942285080574903e-17</v>
+        <v>1.953459313264715e-17</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.766498553890463e-17</v>
+        <v>1.769232612576702e-17</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.694231659333339e-17</v>
+        <v>1.694801079005797e-17</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>1.700602044473121e-17</v>
+        <v>1.690704088284456e-17</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>1.594728901055253e-17</v>
+        <v>1.584071912596507e-17</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>1.581917065261621e-17</v>
+        <v>1.583059987518484e-17</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>1.59016846925939e-17</v>
+        <v>1.57866861234716e-17</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>1.567444869074418e-17</v>
+        <v>1.569599501573884e-17</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>1.515282995779218e-17</v>
+        <v>1.529198368813567e-17</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>1.457916613560996e-17</v>
+        <v>1.451399693033579e-17</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>1.420876812027391e-17</v>
+        <v>1.418335193273278e-17</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>1.317468127988846e-17</v>
+        <v>1.310585422098007e-17</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>1.316494920441325e-17</v>
+        <v>1.305045263642253e-17</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>1.33358501791536e-17</v>
+        <v>1.331857039961925e-17</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>1.294002933872216e-17</v>
+        <v>1.274865474877598e-17</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>1.106425575054749e-17</v>
+        <v>1.096717087658814e-17</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>9.441135777182757e-18</v>
+        <v>9.482006844859259e-18</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>8.635633194124122e-18</v>
+        <v>8.636111010557429e-18</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>8.315054782132935e-18</v>
+        <v>8.426809825484558e-18</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.014616118045566e-17</v>
+        <v>1.010921763361283e-17</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.683242704941538e-17</v>
+        <v>1.675548400418947e-17</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.998166408327726e-17</v>
+        <v>1.999921699298466e-17</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>2.09166170791023e-17</v>
+        <v>2.086015021934394e-17</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.080996072749508e-17</v>
+        <v>2.078283391013262e-17</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.113308130787317e-17</v>
+        <v>2.1114422981283e-17</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.108028721956637e-17</v>
+        <v>2.1159086023368e-17</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>1.95323332997134e-17</v>
+        <v>1.964119409311128e-17</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>1.777308885328583e-17</v>
+        <v>1.788899933001567e-17</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.045848704838641e-17</v>
+        <v>1.047836140709281e-17</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>6.040204733940971e-18</v>
+        <v>6.091040333473787e-18</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>4.903125043541066e-18</v>
+        <v>4.905628290510101e-18</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>4.910879197411386e-18</v>
+        <v>4.951070732678155e-18</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>6.523539651692626e-18</v>
+        <v>6.524952730966932e-18</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>7.077247709575857e-18</v>
+        <v>7.061865570056794e-18</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.017764346680408e-17</v>
+        <v>1.012714642848781e-17</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.270963206791726e-17</v>
+        <v>1.291874075671858e-17</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.289861446890924e-17</v>
+        <v>1.291765318094337e-17</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.195592813690126e-17</v>
+        <v>1.197039207949845e-17</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.037059216014105e-17</v>
+        <v>1.035830490949325e-17</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>8.955292310120448e-18</v>
+        <v>8.919270817489688e-18</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>7.390209588445176e-18</v>
+        <v>7.49748607156298e-18</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>6.633726771293565e-18</v>
+        <v>6.57777994398082e-18</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>6.509806724405185e-18</v>
+        <v>6.381489079299169e-18</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>6.076707473925768e-18</v>
+        <v>5.586847416881582e-18</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>5.987112301131142e-18</v>
+        <v>5.948379568596864e-18</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>5.688361913214956e-18</v>
+        <v>5.706125962504409e-18</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>6.053741826991126e-18</v>
+        <v>5.8362065405641e-18</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>6.766473150753961e-18</v>
+        <v>6.700274276510954e-18</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>7.404040873654461e-18</v>
+        <v>7.370151880007412e-18</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>8.102511913240646e-18</v>
+        <v>8.067664329738086e-18</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>9.069341848535119e-18</v>
+        <v>9.049227958372126e-18</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>9.6937591172538e-18</v>
+        <v>9.710232249821993e-18</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>9.221646704635865e-18</v>
+        <v>9.196660803668113e-18</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>8.08353183765916e-18</v>
+        <v>8.109144405657528e-18</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>7.938187257412427e-18</v>
+        <v>7.971436432663331e-18</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>6.894712264087221e-18</v>
+        <v>6.942472406306015e-18</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>6.559079886043045e-18</v>
+        <v>6.576243200869961e-18</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>6.388834720392918e-18</v>
+        <v>6.414250621759955e-18</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>7.902247756265601e-18</v>
+        <v>7.945308552447813e-18</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>6.8804582789779e-18</v>
+        <v>6.896467267069591e-18</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>7.067250193057281e-18</v>
+        <v>7.104859450772918e-18</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>6.359825323398024e-18</v>
+        <v>6.386183870894069e-18</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>5.89813606741947e-18</v>
+        <v>5.92399429087777e-18</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>5.547554605910583e-18</v>
+        <v>5.55169765169942e-18</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>5.080727866579118e-18</v>
+        <v>5.116477513580451e-18</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>4.699832971285959e-18</v>
+        <v>4.721014255958189e-18</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>4.75513064661098e-18</v>
+        <v>4.785057748081987e-18</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.399103140534542e-18</v>
+        <v>2.41281378138965e-18</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>9.665939719514355e-19</v>
+        <v>9.953176790786143e-19</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>5.751064875175945e-19</v>
+        <v>5.875473500105598e-19</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>8.264128104057038e-19</v>
+        <v>8.405688692029692e-19</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>5.132177374543994e-19</v>
+        <v>5.296794643566071e-19</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>4.06780588594038e-19</v>
+        <v>4.225237490105276e-19</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>3.351682764150038e-19</v>
+        <v>3.469886232077679e-19</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>3.328189366157921e-19</v>
+        <v>3.046268152313402e-19</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>4.617028661536458e-19</v>
+        <v>4.652903661115529e-19</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>7.985203246388881e-19</v>
+        <v>7.932358696329879e-19</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>8.383453345964236e-19</v>
+        <v>8.46651658891507e-19</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>6.835385930079932e-19</v>
+        <v>6.94931738176921e-19</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>5.951977509145482e-19</v>
+        <v>6.072976022197816e-19</v>
       </c>
     </row>
   </sheetData>
